--- a/Padziļināto kursu izvēle 2024__25_m_g_ (atbildes).xlsx
+++ b/Padziļināto kursu izvēle 2024__25_m_g_ (atbildes).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reini\OneDrive\Dokumenti\24to25m.g.darbi\School-timetable-algorithm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ri.riga.lv\rag\Audzekni\rdelvers2\My Documents\GitHub\School-timetable-algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77388F33-CFC7-493A-9DA2-6B37C22F1682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="2445" yWindow="2610" windowWidth="21600" windowHeight="11355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veidlapu atbildes 1" sheetId="1" r:id="rId1"/>
@@ -21,293 +22,288 @@
     <definedName name="eksamens">'Veidlapu atbildes 1'!#REF!</definedName>
     <definedName name="Fizika_II">'Veidlapu atbildes 1'!$Q$2:$Q$1048576</definedName>
     <definedName name="Jā">'Veidlapu atbildes 1'!$M$2:$T$2</definedName>
+    <definedName name="kurss">'Veidlapu atbildes 1'!$L:$L</definedName>
     <definedName name="Ķīmija_II">'Veidlapu atbildes 1'!$R$2:$R$1048576</definedName>
-    <definedName name="kurss">'Veidlapu atbildes 1'!$L:$L</definedName>
     <definedName name="Latviešu_valoda_un_literatūra_II">'Veidlapu atbildes 1'!$O$2:$O$1048576</definedName>
     <definedName name="Matemātika_II">'Veidlapu atbildes 1'!$M$2:$M$1048576</definedName>
     <definedName name="Programmēšana_II">'Veidlapu atbildes 1'!$T$2:$T$1048576</definedName>
     <definedName name="Sociālās_zinātnes_II">'Veidlapu atbildes 1'!$P$2:$P$1048576</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
+  <si>
+    <t>Koris</t>
+  </si>
+  <si>
+    <t>Dace Zariņš</t>
+  </si>
+  <si>
+    <t>Andris Āboltiņa</t>
+  </si>
+  <si>
+    <t>Zane Bērziņš</t>
+  </si>
+  <si>
+    <t>Sanita Liepa</t>
+  </si>
+  <si>
+    <t>Sanita Upītis</t>
+  </si>
+  <si>
+    <t>Sanita Kalniņa</t>
+  </si>
+  <si>
+    <t>Ilze Sproģe</t>
+  </si>
+  <si>
+    <t>Līga Kalniņa</t>
+  </si>
+  <si>
+    <t>Andris Sproģe</t>
+  </si>
+  <si>
+    <t>Dace Liepa</t>
+  </si>
+  <si>
+    <t>Anete Kalniņa</t>
+  </si>
+  <si>
+    <t>Dace Ozoliņš</t>
+  </si>
+  <si>
+    <t>Līga Āboltiņa</t>
+  </si>
+  <si>
+    <t>Andris Kļaviņa</t>
+  </si>
+  <si>
+    <t>Andris Eglītis</t>
+  </si>
+  <si>
+    <t>Līga Sproģe</t>
+  </si>
+  <si>
+    <t>Līga Bērziņš</t>
+  </si>
+  <si>
+    <t>Anete Āboltiņa</t>
+  </si>
+  <si>
+    <t>Andris Liepa</t>
+  </si>
+  <si>
+    <t>Līga Liepa</t>
+  </si>
+  <si>
+    <t>Dace Sproģe</t>
+  </si>
+  <si>
+    <t>Sanita Eglītis</t>
+  </si>
+  <si>
+    <t>Dace Upītis</t>
+  </si>
+  <si>
+    <t>Dace Āboltiņa</t>
+  </si>
+  <si>
+    <t>Mārtiņš Eglītis</t>
+  </si>
+  <si>
+    <t>Andris Upītis</t>
+  </si>
+  <si>
+    <t>Rūdolfs Sproģe</t>
+  </si>
+  <si>
+    <t>Rūdolfs Upītis</t>
+  </si>
+  <si>
+    <t>Anete Bērziņš</t>
+  </si>
+  <si>
+    <t>Anete Sproģe</t>
+  </si>
+  <si>
+    <t>Rūdolfs Āboltiņa</t>
+  </si>
+  <si>
+    <t>Līga Upītis</t>
+  </si>
+  <si>
+    <t>Rūdolfs Bērziņš</t>
+  </si>
+  <si>
+    <t>Mārtiņš Zariņš</t>
+  </si>
+  <si>
+    <t>Rūdolfs Kalniņa</t>
+  </si>
+  <si>
+    <t>Ilze Bērziņš</t>
+  </si>
+  <si>
+    <t>Rūdolfs Eglītis</t>
+  </si>
+  <si>
+    <t>Ilze Eglītis</t>
+  </si>
+  <si>
+    <t>Rūdolfs Liepa</t>
+  </si>
+  <si>
+    <t>Sanita Sproģe</t>
+  </si>
+  <si>
+    <t>Zane Zariņš</t>
+  </si>
+  <si>
+    <t>Mārtiņš Āboltiņa</t>
+  </si>
+  <si>
+    <t>Rūdolfs Zariņš</t>
+  </si>
+  <si>
+    <t>Dace Kalniņa</t>
+  </si>
+  <si>
+    <t>Līga Zariņš</t>
+  </si>
+  <si>
+    <t>Rūdolfs Ozoliņš</t>
+  </si>
+  <si>
+    <t>Mārtiņš Kļaviņa</t>
+  </si>
+  <si>
+    <t>Mārtiņš Ozoliņš</t>
+  </si>
+  <si>
+    <t>Zane Ozoliņš</t>
+  </si>
+  <si>
+    <t>Andris Bērziņš</t>
+  </si>
+  <si>
+    <t>Ilze Kalniņa</t>
+  </si>
+  <si>
+    <t>Zane Sproģe</t>
+  </si>
+  <si>
+    <t>Ilze Zariņš</t>
+  </si>
+  <si>
+    <t>Anete Eglītis</t>
+  </si>
+  <si>
+    <t>Zane Kalniņa</t>
+  </si>
+  <si>
+    <t>Ilze Upītis</t>
+  </si>
+  <si>
+    <t>Dace Bērziņš</t>
+  </si>
+  <si>
+    <t>Zane Kļaviņa</t>
+  </si>
+  <si>
+    <t>Mārtiņš Liepa</t>
+  </si>
+  <si>
+    <t>Zane Anna Sproģe</t>
+  </si>
+  <si>
+    <t>Ilze Katrīna Liepa</t>
+  </si>
+  <si>
+    <t>Krievu valoda</t>
+  </si>
+  <si>
+    <t>Angļu literaūra</t>
+  </si>
+  <si>
+    <t>Franču valoda</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>2.Vācu valoda</t>
+  </si>
+  <si>
+    <t>3.Vācu valoda</t>
+  </si>
+  <si>
+    <t>Programmēšana I</t>
+  </si>
+  <si>
+    <t>Dizains un tehnoloģijas II</t>
+  </si>
+  <si>
+    <t>Bioloģija I</t>
+  </si>
+  <si>
+    <t>Kultūra un māksla</t>
+  </si>
+  <si>
+    <t>Angļu valoda II</t>
+  </si>
+  <si>
+    <t>Matemātika II</t>
+  </si>
+  <si>
+    <t>Latviešu valoda II</t>
+  </si>
+  <si>
+    <t>Sociālās zinātnes II</t>
+  </si>
+  <si>
+    <t>Fizika II</t>
+  </si>
+  <si>
+    <t>Ķīmija II</t>
+  </si>
+  <si>
+    <t>Bioloģija II</t>
+  </si>
+  <si>
+    <t>Programmēšana II</t>
+  </si>
   <si>
     <t>Vārds, uzvārds</t>
   </si>
   <si>
-    <t>Koris</t>
-  </si>
-  <si>
-    <t>Dace Zariņš</t>
-  </si>
-  <si>
-    <t>Andris Āboltiņa</t>
-  </si>
-  <si>
-    <t>Zane Bērziņš</t>
-  </si>
-  <si>
-    <t>Sanita Liepa</t>
-  </si>
-  <si>
-    <t>Sanita Upītis</t>
-  </si>
-  <si>
-    <t>Sanita Kalniņa</t>
-  </si>
-  <si>
-    <t>Ilze Sproģe</t>
-  </si>
-  <si>
-    <t>Līga Kalniņa</t>
-  </si>
-  <si>
-    <t>Andris Sproģe</t>
-  </si>
-  <si>
-    <t>Dace Liepa</t>
-  </si>
-  <si>
-    <t>Anete Kalniņa</t>
-  </si>
-  <si>
-    <t>Dace Ozoliņš</t>
-  </si>
-  <si>
-    <t>Līga Āboltiņa</t>
-  </si>
-  <si>
-    <t>Andris Kļaviņa</t>
-  </si>
-  <si>
-    <t>Andris Eglītis</t>
-  </si>
-  <si>
-    <t>Līga Sproģe</t>
-  </si>
-  <si>
-    <t>Līga Bērziņš</t>
-  </si>
-  <si>
-    <t>Anete Āboltiņa</t>
-  </si>
-  <si>
-    <t>Andris Liepa</t>
-  </si>
-  <si>
-    <t>Līga Liepa</t>
-  </si>
-  <si>
-    <t>Dace Sproģe</t>
-  </si>
-  <si>
-    <t>Sanita Eglītis</t>
-  </si>
-  <si>
-    <t>Dace Upītis</t>
-  </si>
-  <si>
-    <t>Dace Āboltiņa</t>
-  </si>
-  <si>
-    <t>Mārtiņš Eglītis</t>
-  </si>
-  <si>
-    <t>Andris Upītis</t>
-  </si>
-  <si>
-    <t>Rūdolfs Sproģe</t>
-  </si>
-  <si>
-    <t>Rūdolfs Upītis</t>
-  </si>
-  <si>
-    <t>Anete Bērziņš</t>
-  </si>
-  <si>
-    <t>Anete Sproģe</t>
-  </si>
-  <si>
-    <t>Rūdolfs Āboltiņa</t>
-  </si>
-  <si>
-    <t>Līga Upītis</t>
-  </si>
-  <si>
-    <t>Rūdolfs Bērziņš</t>
-  </si>
-  <si>
-    <t>Mārtiņš Zariņš</t>
-  </si>
-  <si>
-    <t>Rūdolfs Kalniņa</t>
-  </si>
-  <si>
-    <t>Ilze Bērziņš</t>
-  </si>
-  <si>
-    <t>Rūdolfs Eglītis</t>
-  </si>
-  <si>
-    <t>Ilze Eglītis</t>
-  </si>
-  <si>
-    <t>Rūdolfs Liepa</t>
-  </si>
-  <si>
-    <t>Sanita Sproģe</t>
-  </si>
-  <si>
-    <t>Zane Zariņš</t>
-  </si>
-  <si>
-    <t>Mārtiņš Āboltiņa</t>
-  </si>
-  <si>
-    <t>Rūdolfs Zariņš</t>
-  </si>
-  <si>
-    <t>Dace Kalniņa</t>
-  </si>
-  <si>
-    <t>Līga Zariņš</t>
-  </si>
-  <si>
-    <t>Rūdolfs Ozoliņš</t>
-  </si>
-  <si>
-    <t>Mārtiņš Kļaviņa</t>
-  </si>
-  <si>
-    <t>Mārtiņš Ozoliņš</t>
-  </si>
-  <si>
-    <t>Zane Ozoliņš</t>
-  </si>
-  <si>
-    <t>Andris Bērziņš</t>
-  </si>
-  <si>
-    <t>Ilze Kalniņa</t>
-  </si>
-  <si>
-    <t>Zane Sproģe</t>
-  </si>
-  <si>
-    <t>Ilze Zariņš</t>
-  </si>
-  <si>
-    <t>Anete Eglītis</t>
-  </si>
-  <si>
-    <t>Zane Kalniņa</t>
-  </si>
-  <si>
-    <t>Ilze Upītis</t>
-  </si>
-  <si>
-    <t>Dace Bērziņš</t>
-  </si>
-  <si>
-    <t>Zane Kļaviņa</t>
-  </si>
-  <si>
-    <t>Mārtiņš Liepa</t>
-  </si>
-  <si>
-    <t>Zane Anna Sproģe</t>
-  </si>
-  <si>
-    <t>Ilze Katrīna Liepa</t>
-  </si>
-  <si>
-    <t>Krievu valoda</t>
-  </si>
-  <si>
-    <t>Angļu literaūra</t>
-  </si>
-  <si>
-    <t>Franču valoda</t>
-  </si>
-  <si>
-    <t>1nis Ozoliņš</t>
-  </si>
-  <si>
-    <t>1nis Āboltiņa</t>
-  </si>
-  <si>
-    <t>1nis Zariņš</t>
-  </si>
-  <si>
-    <t>1nis Eglītis</t>
-  </si>
-  <si>
-    <t>Sports</t>
-  </si>
-  <si>
-    <t>2.Vācu valoda</t>
-  </si>
-  <si>
-    <t>3.Vācu valoda</t>
-  </si>
-  <si>
-    <t>Programmēšana I</t>
-  </si>
-  <si>
-    <t>Dizains un tehnoloģijas II</t>
-  </si>
-  <si>
-    <t>Bioloģija I</t>
-  </si>
-  <si>
-    <t>Kultūra un māksla</t>
-  </si>
-  <si>
-    <t>Angļu valoda II</t>
-  </si>
-  <si>
-    <t>Matemātika II</t>
-  </si>
-  <si>
-    <t>Metemātika I</t>
-  </si>
-  <si>
-    <t>Latviešu valoda II</t>
-  </si>
-  <si>
-    <t>Sociālās zinātnes II</t>
-  </si>
-  <si>
-    <t>Fizika II</t>
-  </si>
-  <si>
-    <t>Ķīmija II</t>
-  </si>
-  <si>
-    <t>Bioloģija II</t>
-  </si>
-  <si>
-    <t>Programmēšana II</t>
+    <t>Jānis Ozoliņš</t>
+  </si>
+  <si>
+    <t>Jānis Āboltiņa</t>
+  </si>
+  <si>
+    <t>Jānis Zariņš</t>
+  </si>
+  <si>
+    <t>Jānis Eglītis</t>
+  </si>
+  <si>
+    <t>Matemātika I</t>
+  </si>
+  <si>
+    <t>asdfaaaa</t>
+  </si>
+  <si>
+    <t>sdfasdfa sadf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -599,17 +595,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U90"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -629,74 +625,77 @@
     <col min="22" max="26" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="J1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="M1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V1" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="6">
@@ -737,9 +736,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="6">
@@ -776,9 +775,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="6">
@@ -815,9 +814,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="6">
@@ -856,9 +855,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="6">
@@ -899,9 +898,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="6">
@@ -940,9 +939,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -976,9 +975,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1019,9 +1018,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1060,9 +1059,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1105,9 +1104,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1148,9 +1147,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1191,9 +1190,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1236,9 +1235,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1275,9 +1274,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="6">
@@ -1319,7 +1318,7 @@
     </row>
     <row r="17" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="6">
@@ -1363,7 +1362,7 @@
     </row>
     <row r="18" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="6">
@@ -1403,7 +1402,7 @@
     </row>
     <row r="19" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="6">
@@ -1443,7 +1442,7 @@
     </row>
     <row r="20" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="6">
@@ -1485,7 +1484,7 @@
     </row>
     <row r="21" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="6">
@@ -1525,7 +1524,7 @@
     </row>
     <row r="22" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="6">
@@ -1565,7 +1564,7 @@
     </row>
     <row r="23" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="6">
@@ -1605,7 +1604,7 @@
     </row>
     <row r="24" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="6">
@@ -1647,7 +1646,7 @@
     </row>
     <row r="25" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="6">
@@ -1685,7 +1684,7 @@
     </row>
     <row r="26" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1726,7 +1725,7 @@
     </row>
     <row r="27" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1765,7 +1764,7 @@
     </row>
     <row r="28" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1806,7 +1805,7 @@
     </row>
     <row r="29" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1847,7 +1846,7 @@
     </row>
     <row r="30" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1890,7 +1889,7 @@
     </row>
     <row r="31" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1933,7 +1932,7 @@
     </row>
     <row r="32" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1974,7 +1973,7 @@
     </row>
     <row r="33" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2015,7 +2014,7 @@
     </row>
     <row r="34" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2054,7 +2053,7 @@
     </row>
     <row r="35" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2095,7 +2094,7 @@
     </row>
     <row r="36" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2138,7 +2137,7 @@
     </row>
     <row r="37" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2177,7 +2176,7 @@
     </row>
     <row r="38" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="6">
@@ -2217,7 +2216,7 @@
     </row>
     <row r="39" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="6">
@@ -2259,7 +2258,7 @@
     </row>
     <row r="40" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="6">
@@ -2301,7 +2300,7 @@
     </row>
     <row r="41" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="6">
@@ -2343,7 +2342,7 @@
     </row>
     <row r="42" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="6">
@@ -2383,7 +2382,7 @@
     </row>
     <row r="43" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="6">
@@ -2423,7 +2422,7 @@
     </row>
     <row r="44" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="6">
@@ -2463,7 +2462,7 @@
     </row>
     <row r="45" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="6">
@@ -2501,7 +2500,7 @@
     </row>
     <row r="46" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="6">
@@ -2541,7 +2540,7 @@
     </row>
     <row r="47" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="6">
@@ -2579,7 +2578,7 @@
     </row>
     <row r="48" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="6">
@@ -2619,7 +2618,7 @@
     </row>
     <row r="49" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="6">
@@ -2659,7 +2658,7 @@
     </row>
     <row r="50" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="6">
@@ -2697,7 +2696,7 @@
     </row>
     <row r="51" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
@@ -2739,7 +2738,7 @@
     </row>
     <row r="52" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="6">
@@ -2781,7 +2780,7 @@
     </row>
     <row r="53" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="6">
@@ -2823,7 +2822,7 @@
     </row>
     <row r="54" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2864,7 +2863,7 @@
     </row>
     <row r="55" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2903,7 +2902,7 @@
     </row>
     <row r="56" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2942,7 +2941,7 @@
     </row>
     <row r="57" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2979,7 +2978,7 @@
     </row>
     <row r="58" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -3018,7 +3017,7 @@
     </row>
     <row r="59" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -3055,7 +3054,7 @@
     </row>
     <row r="60" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -3092,7 +3091,7 @@
     </row>
     <row r="61" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -3133,7 +3132,7 @@
     </row>
     <row r="62" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -3174,7 +3173,7 @@
     </row>
     <row r="63" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3211,7 +3210,7 @@
     </row>
     <row r="64" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B64" s="3">
         <v>1</v>
@@ -3251,7 +3250,7 @@
     </row>
     <row r="65" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3">
@@ -3287,7 +3286,7 @@
     </row>
     <row r="66" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3">
@@ -3327,7 +3326,7 @@
     </row>
     <row r="67" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3">
@@ -3367,7 +3366,7 @@
     </row>
     <row r="68" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3">
@@ -3407,7 +3406,7 @@
     </row>
     <row r="69" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3">
@@ -3445,7 +3444,7 @@
     </row>
     <row r="70" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3">
@@ -3481,7 +3480,7 @@
     </row>
     <row r="71" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3">
@@ -3517,7 +3516,7 @@
     </row>
     <row r="72" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3">
@@ -3553,7 +3552,7 @@
     </row>
     <row r="73" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3">
@@ -3589,7 +3588,7 @@
     </row>
     <row r="74" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3">
@@ -3625,7 +3624,7 @@
     </row>
     <row r="75" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3">
@@ -3663,7 +3662,7 @@
     </row>
     <row r="76" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3">
@@ -3699,7 +3698,7 @@
     </row>
     <row r="77" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3">
@@ -3739,7 +3738,7 @@
     </row>
     <row r="78" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3">
@@ -3779,7 +3778,7 @@
     </row>
     <row r="79" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3">
@@ -3815,7 +3814,7 @@
     </row>
     <row r="80" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3">
@@ -3853,7 +3852,7 @@
     </row>
     <row r="81" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3">
@@ -3891,7 +3890,7 @@
     </row>
     <row r="82" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3">
@@ -3927,7 +3926,7 @@
     </row>
     <row r="83" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -3964,7 +3963,7 @@
     </row>
     <row r="84" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -4003,7 +4002,7 @@
     </row>
     <row r="85" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -4040,7 +4039,7 @@
     </row>
     <row r="86" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -4079,7 +4078,7 @@
     </row>
     <row r="87" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -4114,7 +4113,7 @@
     </row>
     <row r="88" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -4149,7 +4148,7 @@
     </row>
     <row r="89" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D89" s="6">
         <v>1</v>
@@ -4175,7 +4174,7 @@
     </row>
     <row r="90" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D90" s="6"/>
       <c r="J90" s="4"/>
@@ -4196,9 +4195,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="91" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:U90">
-    <sortState ref="A2:Y90">
+  <autoFilter ref="A1:U90" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y90">
       <sortCondition descending="1" ref="F1:F90"/>
     </sortState>
   </autoFilter>

--- a/Padziļināto kursu izvēle 2024__25_m_g_ (atbildes).xlsx
+++ b/Padziļināto kursu izvēle 2024__25_m_g_ (atbildes).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ri.riga.lv\rag\Audzekni\rdelvers2\My Documents\GitHub\School-timetable-algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77388F33-CFC7-493A-9DA2-6B37C22F1682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B0686A-AC66-4103-A039-8DB97102CE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="2610" windowWidth="21600" windowHeight="11355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veidlapu atbildes 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
   <si>
     <t>Koris</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>sdfasdfa sadf</t>
+  </si>
+  <si>
+    <t>jghfdtyrdh ghkg</t>
   </si>
 </sst>
 </file>
@@ -383,7 +386,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Parasts" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -599,13 +602,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="L83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A91" sqref="A91"/>
+      <selection pane="bottomRight" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4200,6 +4203,11 @@
         <v>87</v>
       </c>
     </row>
+    <row r="92" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:U90" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y90">

--- a/Padziļināto kursu izvēle 2024__25_m_g_ (atbildes).xlsx
+++ b/Padziļināto kursu izvēle 2024__25_m_g_ (atbildes).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ri.riga.lv\rag\Audzekni\rdelvers2\My Documents\GitHub\School-timetable-algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B0686A-AC66-4103-A039-8DB97102CE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE3A73E-BAAD-4EDF-A5B9-7CB7BA53244E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2445" yWindow="2610" windowWidth="21600" windowHeight="11355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veidlapu atbildes 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
   <si>
     <t>Koris</t>
   </si>
@@ -301,6 +301,12 @@
   </si>
   <si>
     <t>jghfdtyrdh ghkg</t>
+  </si>
+  <si>
+    <t>dfa sdfa asdf</t>
+  </si>
+  <si>
+    <t>asdf</t>
   </si>
 </sst>
 </file>
@@ -386,7 +392,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Parasts" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -602,13 +608,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V92"/>
+  <dimension ref="A1:W93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A92" sqref="A92"/>
+      <selection pane="bottomRight" activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -628,7 +634,7 @@
     <col min="22" max="26" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
@@ -695,8 +701,11 @@
       <c r="V1" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="W1" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -739,7 +748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -778,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -817,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
@@ -858,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -901,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -942,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
@@ -978,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
@@ -1021,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
@@ -1062,7 +1071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -1107,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>81</v>
       </c>
@@ -1150,7 +1159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
@@ -1193,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -1238,7 +1247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
@@ -1277,7 +1286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
@@ -4206,6 +4215,11 @@
     <row r="92" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
